--- a/testfiles/policy1.xlsx
+++ b/testfiles/policy1.xlsx
@@ -289,7 +289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,6 +762,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1037,6 +1040,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00FFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1306,13 +1314,14 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19.5727272727273" customWidth="1"/>
     <col min="2" max="2" width="19.3545454545455" customWidth="1"/>
+    <col min="3" max="4" width="12.8181818181818"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:2">
@@ -1336,7 +1345,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>253.79</v>
+        <v>3156.66</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:2">
@@ -1344,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>452</v>
+        <v>6339.01</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:2">
@@ -1353,7 +1362,7 @@
       </c>
       <c r="B5" s="3">
         <f>B4/B3</f>
-        <v>1.78100003940266</v>
+        <v>2.00813834876103</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:2">
@@ -1384,8 +1393,9 @@
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.1394</v>
+      <c r="B9" s="4">
+        <f>1/7.1879</f>
+        <v>0.139122692302341</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:2">
@@ -1408,7 +1418,7 @@
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1437,16 +1447,16 @@
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" ht="16.5" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" ht="16.5" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
